--- a/2.xlsx
+++ b/2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,45 +510,40 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>image_list</t>
+          <t>source_url</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>source_url</t>
+          <t>article_genre</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>article_genre</t>
+          <t>item_id</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>item_id</t>
+          <t>is_feed_ad</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>is_feed_ad</t>
+          <t>behot_time</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>behot_time</t>
+          <t>image_url</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>image_url</t>
+          <t>group_id</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>group_id</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>middle_image</t>
         </is>
@@ -563,41 +558,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新疆天山脚下某边防团有一支女兵排，她们来自五湖四海，她们从高校变成了军中绿花，从柔弱姑娘变成了驻守边关的铿锵玫瑰。</t>
+          <t>因为携带或送礼方便，螃蟹随吃随兑，蟹券备受消费者的青睐。可近几年，随着蟹券的泛滥，兑换难、蟹券空转的情况时有发生。</t>
         </is>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>news_military</t>
+          <t>news_society</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>803</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>news_military</t>
+          <t>news_society</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>别眨眼！边防女兵入伍前后对比照来啦</t>
+          <t>一只螃蟹也没卖，每张蟹券净赚100元！网友：套路比阳澄湖还深</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>军事</t>
+          <t>社会</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>解放军新闻传播中心融媒体</t>
+          <t>中国证券报</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -608,49 +603,44 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>/c/user/token/MS4wLjABAAAAR9OScufagHifUkflWI8mMkUCliKjNFXlryHp1Bp9nbk/</t>
+          <t>/c/user/token/MS4wLjABAAAAU5sUoJ6AtGhpGrp23JsboRRW37S3Pid3XvGhOQyOPDA/</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>//p5.toutiaoimg.com/large/12284/4086236459</t>
+          <t>//p3.toutiaoimg.com/large/fe5b000013cbab385bc9</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[{'url': '//p1.pstatp.com/list/pgc-image/e2a11e513bb244c1a3a2d888ee338735'}, {'url': '//p1.pstatp.com/list/pgc-image/1414a167970a45be9e9506f46ee8aa3a'}, {'url': '//p9.pstatp.com/list/pgc-image/9e70b5d720404d02a349e76cb95496a4'}]</t>
+          <t>/group/7010359998979146270/</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>/group/6944971388285583885/</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
           <t>article</t>
         </is>
       </c>
-      <c r="S2" t="n">
-        <v>6.944971388285584e+18</v>
-      </c>
-      <c r="T2" t="b">
+      <c r="R2" t="n">
+        <v>7.010359998979147e+18</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>44313.28501157407</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>//p1.pstatp.com/list/190x124/pgc-image/e2a11e513bb244c1a3a2d888ee338735</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>6.944971388285584e+18</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>http://p1.pstatp.com/list/pgc-image/e2a11e513bb244c1a3a2d888ee338735</t>
+      <c r="T2" s="2" t="n">
+        <v>44461.37701388889</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>//p3.pstatp.com/list/190x124/pgc-image/SjeCaJu2He359</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>7.010359998979147e+18</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>http://p3.pstatp.com/list/pgc-image/SjeCaJu2He359</t>
         </is>
       </c>
     </row>
